--- a/Security_Advisory_November_2017.xlsx
+++ b/Security_Advisory_November_2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
   <si>
     <t>CVE ID Number</t>
   </si>
@@ -62,15 +62,231 @@
     <t>Summary Text</t>
   </si>
   <si>
+    <t>CVE-2008-7319</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-07</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>Net-ping-external Project</t>
+  </si>
+  <si>
+    <t>Net-ping-external</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Not required</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Execute Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The Net::Ping::External extension through 0.15 for Perl does not properly sanitize arguments (e.g., invalid hostnames) containing shell metacharacters before use of backticks in External.pm, allowing for shell command injection and arbitrary command execution if untrusted input is used.	</t>
+  </si>
+  <si>
+    <t>CVE-2015-7501</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-09</t>
+  </si>
+  <si>
+    <t>Redhat</t>
+  </si>
+  <si>
+    <t>Xpaas</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Red Hat JBoss A-MQ 6.x; BPM Suite (BPMS) 6.x; BRMS 6.x and 5.x; Data Grid (JDG) 6.x; Data Virtualization (JDV) 6.x and 5.x; Enterprise Application Platform 6.x, 5.x, and 4.3.x; Fuse 6.x; Fuse Service Works (FSW) 6.x; Operations Network (JBoss ON) 3.x; Portal 6.x; SOA Platform (SOA-P) 5.x; Web Server (JWS) 3.x; Red Hat OpenShift/xPAAS 3.x; and Red Hat Subscription Asset Manager 1.3 allow remote attackers to execute arbitrary commands via a crafted serialized Java object, related to the Apache Commons Collections (ACC) library.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-10871</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-13</t>
+  </si>
+  <si>
+    <t>OS</t>
+  </si>
+  <si>
+    <t>Nttdocomo</t>
+  </si>
+  <si>
+    <t>Wi-fi Station L-02f Firmware</t>
+  </si>
+  <si>
+    <t>L02f-mdm9625-v10h-jun-23-2017-dcm-jp</t>
+  </si>
+  <si>
+    <t>Execute CodeOverflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Buffer overflow in NTT DOCOMO Wi-Fi STATION L-02F Software version L02F-MDM9625-V10h-JUN-23-2017-DCM-JP and earlier allows an attacker to execute arbitrary code via unspecified vectors.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11402</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-20</t>
+  </si>
+  <si>
+    <t>Belden</t>
+  </si>
+  <si>
+    <t>Tofino Xenon Security Appliance Firmware</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>Bypass a restriction or similar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue has been discovered on the Belden Hirschmann Tofino Xenon Security Appliance before 03.2.00. Design flaws in OPC classic and in custom netfilter modules allow an attacker to remotely activate rules on the firewall and to connect to any TCP port of a protected asset, thus bypassing the firewall. The attack methodology is a crafted OPC dynamic port shift.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11767</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-02</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Chakracore</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Memory corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ChakraCore allows an attacker to gain the same user rights as the current user, due to the way that the ChakraCore scripting engine handles objects in memory, aka "Scripting Engine Memory Corruption Vulnerability".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-12337</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-16</t>
+  </si>
+  <si>
+    <t>Cisco</t>
+  </si>
+  <si>
+    <t>Unity Connection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A vulnerability in the upgrade mechanism of Cisco collaboration products based on the Cisco Voice Operating System software platform could allow an unauthenticated, remote attacker to gain unauthorized, elevated access to an affected device. The vulnerability occurs when a refresh upgrade (RU) or Prime Collaboration Deployment (PCD) migration is performed on an affected device. When a refresh upgrade or PCD migration is completed successfully, an engineering flag remains enabled and could allow root access to the device with a known password. If the vulnerable device is subsequently upgraded using the standard upgrade method to an Engineering Special Release, service update, or a new major release of the affected product, this vulnerability is remediated by that action. Note: Engineering Special Releases that are installed as COP files, as opposed to the standard upgrade method, do not remediate this vulnerability. An attacker who can access an affected device over SFTP while it is in a vulnerable state could gain root access to the device. This access could allow the attacker to compromise the affected system completely. Cisco Bug IDs: CSCvg22923, CSCvg55112, CSCvg55128, CSCvg55145, CSCvg58619, CSCvg64453, CSCvg64456, CSCvg64464, CSCvg64475, CSCvg68797.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-12635</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-14</t>
+  </si>
+  <si>
+    <t>Apache</t>
+  </si>
+  <si>
+    <t>Couchdb</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Due to differences in the Erlang-based JSON parser and JavaScript-based JSON parser, it is possible in Apache CouchDB before 1.7.0 and 2.x before 2.1.1 to submit _users documents with duplicate keys for 'roles' used for access control within the database, including the special case '_admin' role, that denotes administrative users. In combination with CVE-2017-12636 (Remote Code Execution), this can be used to give non-admin users access to arbitrary shell commands on the server as the database system user. The JSON parser differences result in behaviour that if two 'roles' keys are available in the JSON, the second one will be used for authorising the document write, but the first 'roles' key is used for subsequent authorization for the newly created user. By design, users can not assign themselves roles. The vulnerability allows non-admin users to give themselves admin privileges.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-12739</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-15</t>
+  </si>
+  <si>
+    <t>Siemens</t>
+  </si>
+  <si>
+    <t>Sm-2556 Firmware</t>
+  </si>
+  <si>
+    <t>Modi00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered on Siemens SICAM RTUs SM-2556 COM Modules with the firmware variants ENOS00, ERAC00, ETA2, ETLS00, MODi00, and DNPi00. The integrated web server (port 80/tcp) of the affected devices could allow unauthenticated remote attackers to execute arbitrary code on the affected device.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13815</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-12</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Mac Os X</t>
+  </si>
+  <si>
+    <t>10.13.0</t>
+  </si>
+  <si>
+    <t>Denial Of Service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the third-party "file" product. Versions before 5.31 allow remote attackers to cause a denial of service (application crash) or possibly have unspecified other impact.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13846</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the third-party "PCRE" product. Versions before 8.40 allow remote attackers to cause a denial of service (application crash) or possibly have unspecified other impact.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-14024</t>
+  </si>
+  <si>
+    <t>Schneider-electric</t>
+  </si>
+  <si>
+    <t>Wonderware Intouch</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A Stack-based Buffer Overflow issue was discovered in Schneider Electric InduSoft Web Studio v8.0 SP2 Patch 1 and prior versions, and InTouch Machine Edition v8.0 SP2 Patch 1 and prior versions. The stack-based buffer overflow vulnerability has been identified, which may allow remote code execution with high privileges.	</t>
+  </si>
+  <si>
     <t>CVE-2017-16523</t>
   </si>
   <si>
     <t xml:space="preserve"> 2017-11-03</t>
   </si>
   <si>
-    <t>OS</t>
-  </si>
-  <si>
     <t>Mitrastar</t>
   </si>
   <si>
@@ -80,265 +296,682 @@
     <t>1.00(vnj0)b1</t>
   </si>
   <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>Complete</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Not required</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
     <t xml:space="preserve">	MitraStar GPT-2541GNAC (HGU) 1.00(VNJ0)b1 and DSL-100HN-T1 ES_113WJY0b16 devices have a zyad1234 password for the zyad1234 account, which is equivalent to root and undocumented.	</t>
   </si>
   <si>
+    <t>CVE-2017-16566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-17</t>
+  </si>
+  <si>
+    <t>Jooan</t>
+  </si>
+  <si>
+    <t>A5 Ip Camera Firmware</t>
+  </si>
+  <si>
+    <t>2.3.36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	On Jooan IP Camera A5 2.3.36 devices, an insecure FTP server does not require authentication, which allows remote attackers to read or replace core system files including those used for authentication (such as passwd and shadow). This can be abused to take full root level control of the device.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16638</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-06</t>
+  </si>
+  <si>
+    <t>Gain privileges</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The Gentoo net-misc/vde package before version 2.3.2-r4 may allow members of the "qemu" group to gain root privileges by creating a hard link in a directory on which "chown" is called recursively by the OpenRC service script.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16820</t>
+  </si>
+  <si>
+    <t>Collectd</t>
+  </si>
+  <si>
+    <t>5.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The csnmp_read_table function in snmp.c in the SNMP plugin in collectd before 5.6.3 is susceptible to a double free in a certain error case, which could lead to a crash (or potentially have other impact).	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16844</t>
+  </si>
+  <si>
+    <t>Procmail</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>Denial Of ServiceExecute CodeOverflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Heap-based buffer overflow in the loadbuf function in formisc.c in formail in procmail 3.22 allows remote attackers to cause a denial of service (application crash) or possibly execute arbitrary code via a crafted e-mail message because of a hardcoded realloc size, a different vulnerability than CVE-2014-3618.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000169</t>
+  </si>
+  <si>
+    <t>Quickerbb Project</t>
+  </si>
+  <si>
+    <t>Quickerbb</t>
+  </si>
+  <si>
+    <t>0.7.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	QuickerBB version &lt;= 0.7.2 is vulnerable to arbitrary file writes which can lead to remote code execution. This can lead to the complete takeover of the server hosting QuickerBB.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000215</t>
+  </si>
+  <si>
+    <t>Xrootd</t>
+  </si>
+  <si>
+    <t>4.6.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ROOT xrootd version 4.6.0 and below is vulnerable to an unauthenticated shell command injection resulting in remote code execution	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	nodejs ejs versions older than 2.5.3 is vulnerable to remote code execution due to weak input validation in ejs.renderFile() function	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000235</t>
+  </si>
+  <si>
+    <t>I-librarian</t>
+  </si>
+  <si>
+    <t>I Librarian</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	I, Librarian version &lt;=4.6 &amp; 4.7 is vulnerable to OS Command Injection in batchimport.php resulting the web server being fully compromised.	</t>
+  </si>
+  <si>
+    <t>CVE-2016-6803</t>
+  </si>
+  <si>
+    <t>Openoffice</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An installer defect known as an "unquoted Windows search path vulnerability" affected the Apache OpenOffice before 4.1.3 installers for Windows. The PC must have previously been infected by a Trojan Horse application (or user) running with administrative privilege. Any installer with the unquoted search path vulnerability becomes a delayed trigger for the exploit.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0830</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An elevation of privilege vulnerability in the Android framework (device policy client). Product: Android. Versions: 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-62623498.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An elevation of privilege vulnerability in the Android framework (window manager). Product: Android. Versions: 8.0. Android ID: A-37442941.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0832</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android media framework (libmpeg2). Product: Android. Versions: 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-62887820.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0833</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android media framework (libavc). Product: Android. Versions: 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-62896384.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android media framework (libmpeg2). Product: Android. Versions: 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-63125953.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0835</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android media framework (libmpeg2). Product: Android. Versions: 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-63316832.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0836</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android media framework (libhevc). Product: Android. Versions: 5.0.2, 5.1.1, 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-64893226.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	A remote code execution vulnerability in the Android system (libutils). Product: Android. Versions: 5.0.2, 5.1.1, 6.0, 6.0.1, 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-37723026.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Bastet in P10 Plus and P10 smart phones with software earlier than VKY-AL00C00B123 versions, earlier than VTR-AL00C00B123 versions have a buffer overflow vulnerability. An attacker with the root privilege of an Android system may trick a user into installing a malicious APP. The APP can modify specific data to cause buffer overflow in the next system reboot, causing continuous system reboot or arbitrary code execution.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2725</t>
+  </si>
+  <si>
+    <t>CVE-2017-2726</t>
+  </si>
+  <si>
+    <t>CVE-2017-2883</t>
+  </si>
+  <si>
+    <t>Meetcircle</t>
+  </si>
+  <si>
+    <t>Circle With Disney Firmware</t>
+  </si>
+  <si>
+    <t>2.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the database update functionality of Circle with Disney running firmware 2.0.1. Specially crafted network packets can cause the device to execute arbitrary code. An attacker needs to impersonate a remote server in order to trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-6264</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Linux Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An elevation of privilege vulnerability exists in the NVIDIA GPU driver (gm20b_clk_throt_set_cdev_state), where an out of bound memory read is used as a function pointer could lead to code execution in the kernel.This issue is rated as high because it could allow a local malicious application to execute arbitrary code within the context of a privileged process. Product: Android. Version: N/A. Android ID: A-34705430. References: N-CVE-2017-6264.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	HedEx Earlier than V200R006C00 versions has a dynamic link library (DLL) hijacking vulnerability due to calling the DDL file by accessing a relative path. An attacker could exploit this vulnerability to tamper with the DLL file, leading to DLL hijacking.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8150</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The boot loaders of P10 and P10 Plus Huawei mobile phones with software the versions before Victoria-L09AC605B162, the versions before Victoria-L29AC605B162, the versions before Vicky-L29AC605B162 have an arbitrary memory write vulnerability due to the lack of parameter validation. An attacker with the root privilege of an Android system may trick a user into installing a malicious APP. The APP can modify specific data to cause arbitrary memory writing in the next system reboot, causing continuous system reboot or arbitrary code execution.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Huawei smart phones with software earlier than VIE-L09C40B360 versions have a buffer overflow vulnerability due to the lack of parameter validation. An attacker tricks a user into installing a malicious APP which has the root privilege; the APP can send a specific parameter to the smart phone, causing the smartphone restart or arbitrary code execution.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8170</t>
+  </si>
+  <si>
+    <t>CVE-2017-8207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The driver of honor 5C, honor 6x Huawei smart phones with software of versions earlier than NEM-AL10C00B356, versions earlier than Berlin-L21HNC432B360 have a buffer overflow vulnerability due to the lack of parameter validation. An attacker tricks a user into installing a malicious APP which has the root privilege of the Android system, the APP can send a specific parameter to the driver of the smart phone, causing a system reboot or arbitrary code execution.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The driver of honor 5C,honor 6x Huawei smart phones with software of versions earlier than NEM-AL10C00B356, versions earlier than Berlin-L21HNC432B360 have a buffer overflow vulnerability due to the lack of parameter validation. An attacker tricks a user into installing a malicious APP which has the root privilege of the Android system, the APP can send a specific parameter to the driver of the smart phone, causing a system reboot or arbitrary code execution.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8209</t>
+  </si>
+  <si>
+    <t>CVE-2017-8210</t>
+  </si>
+  <si>
+    <t>CVE-2017-8211</t>
+  </si>
+  <si>
+    <t>CVE-2017-8212</t>
+  </si>
+  <si>
+    <t>CVE-2017-10885</t>
+  </si>
+  <si>
+    <t>Sbisec</t>
+  </si>
+  <si>
+    <t>Hyper Sbi</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Untrusted search path vulnerability in HYPER SBI Ver. 2.2 and earlier allows an attacker to gain privileges via a Trojan horse DLL in an unspecified directory.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-10887</t>
+  </si>
+  <si>
+    <t>Bookwalker</t>
+  </si>
+  <si>
+    <t>Book Walker</t>
+  </si>
+  <si>
+    <t>1.2.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Untrusted search path vulnerability in BOOK WALKER for Windows Ver.1.2.9 and earlier allows an attacker to gain privileges via a Trojan horse DLL in an unspecified directory.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	In android for MSM, Firefox OS for MSM, QRD Android, with all Android releases from CAF using the Linux kernel, countOffset (in function UnpackCore) is increased for each loop, while there is no boundary check against "pIe-&gt;arraybound".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11014</t>
+  </si>
+  <si>
+    <t>Overflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	In android for MSM, Firefox OS for MSM, QRD Android, with all Android releases from CAF using the Linux kernel, while parsing a Measurement Request IE in a Roam Neighbor Action Report, a buffer overflow can occur.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	In android for MSM, Firefox OS for MSM, QRD Android, with all Android releases from CAF using the Linux kernel, currently, the value of SIR_MAC_AUTH_CHALLENGE_LENGTH is set to 128 which may result in buffer overflow since the frame parser allows challenge text of length up to 253 bytes, but the driver can not handle challenge text larger than 128 bytes.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	In android for MSM, Firefox OS for MSM, QRD Android, with all Android releases from CAF using the Linux kernel, in the KGSL driver function kgsl_ioctl_gpu_command, a Use After Free condition can potentially occur.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11827</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>OverflowMemory corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Internet Explorer in Microsoft Windows 7 SP1, Windows Server 2008 R2 SP1, Windows 8.1 and Windows RT 8.1, Windows Server 2012 and R2, and Microsoft Edge and Internet Explorer in Windows 10 Gold, 1511, 1607, 1703, 1709, Windows Server 2016 and Windows Server, version 1709 allows an attacker to gain the same user rights as the current user, due to how Microsoft browsers handle objects in memory, aka "Microsoft Browser Memory Corruption Vulnerability".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11847</t>
+  </si>
+  <si>
+    <t>Windows Server 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Windows kernel in Windows 7 SP1, Windows Server 2008 SP2 and R2 SP1, Windows 8.1 and RT1, Windows Server 2012 and R2, Windows 10 Gold, 1511, 1607, 1703, and 1709, Windows Server 2016, and Windows Server, version 1709 allows an attacker to run arbitrary code in kernel mode, install programs, view, change or delete data, and create new accounts with full user rights due to improperly handing objects in memory, aka "Windows Kernel Elevation of Privilege Vulnerability".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11854</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Microsoft Word 2007 Service Pack 3, Microsoft Word 2010 Service Pack 2, Microsoft Office 2010 Service Pack 2, and Microsoft Office Compatibility Pack Service Pack 3 allow an attacker to run arbitrary code in the context of the current user by failing to properly handle objects in memory, aka "Microsoft Word Memory Corruption Vulnerability".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11878</t>
+  </si>
+  <si>
+    <t>Office Compatibility Pack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Microsoft Excel 2007 Service Pack 3, Microsoft Excel 2010 Service Pack 2, Microsoft Excel 2013 Service Pack 1, Microsoft Excel 2013 RT Service Pack 1, Microsoft Excel 2016, Microsoft Office Compatibility Pack Service Pack 3, and Microsoft Excel Viewer 2007 Service Pack 3 allow an attacker to run arbitrary code in the context of the current user by failing to properly handle objects in memory, aka "Microsoft Excel Memory Corruption Vulnerability".	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11882</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Microsoft Office 2007 Service Pack 3, Microsoft Office 2010 Service Pack 2, Microsoft Office 2013 Service Pack 1, and Microsoft Office 2016 allow an attacker to run arbitrary code in the context of the current user by failing to properly handle objects in memory, aka "Microsoft Office Memory Corruption Vulnerability". This CVE ID is unique from CVE-2017-11884.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11884</t>
+  </si>
+  <si>
+    <t>Excel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Microsoft Excel 2016 Click-to-Run (C2R) allows an attacker to run arbitrary code in the context of the current user by failing to properly handle objects in memory, aka "Microsoft Office Memory Corruption Vulnerability". This CVE ID is unique from CVE-2017-11882.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13799</t>
+  </si>
+  <si>
+    <t>Watchos</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Denial Of ServiceExecute CodeOverflowMemory corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. iOS before 11.1 is affected. macOS before 10.13.1 is affected. tvOS before 11.1 is affected. watchOS before 4.1 is affected. The issue involves the "Kernel" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "APFS" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13808</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "Remote Management" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13811</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "fsck_msdos" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "CFNetwork" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "HFS" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13833</t>
+  </si>
+  <si>
+    <t>CVE-2017-13834</t>
+  </si>
+  <si>
+    <t>Denial Of ServiceOverflowMemory corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "Kernel" component. It allows remote attackers to cause a denial of service (memory corruption) or possibly have unspecified other impact via a crafted mach binary.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "Sandbox" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-13843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An issue was discovered in certain Apple products. macOS before 10.13.1 is affected. The issue involves the "Kernel" component. It allows attackers to execute arbitrary code in a privileged context or cause a denial of service (memory corruption) via a crafted app.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-14020</t>
+  </si>
+  <si>
+    <t>Automationdirect</t>
+  </si>
+  <si>
+    <t>Sl-soft Solo Temperature Controller Firmware</t>
+  </si>
+  <si>
+    <t>1.1.0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An Uncontrolled Search Path Element issue was discovered in AutomationDirect CLICK Programming Software (Part Number C0-PGMSW) versions 2.10 and prior, C-More Programming Software (Part Number EA9-PGMSW) versions 6.30 and prior, C-More Micro (Part Number EA-PGMSW) versions 4.20.01.0 and prior, GS Drives Configuration Software (Part Number GSOFT) versions 4.0.6 and prior, and SL-SOFT SOLO Temperature Controller Configuration Software (Part Number SL-SOFT) versions 1.1.0.5 and prior. An uncontrolled search path element (DLL Hijacking) vulnerability has been identified. To exploit this vulnerability, an attacker could rename a malicious DLL to meet the criteria of the application, and the application would not verify that the DLL is correct. Once loaded by the application, the DLL could run malicious code at the privilege level of the application.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-14029</t>
+  </si>
+  <si>
+    <t>Trihedral</t>
+  </si>
+  <si>
+    <t>Vtscada</t>
+  </si>
+  <si>
+    <t>11.3.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An Uncontrolled Search Path Element issue was discovered in Trihedral VTScada 11.3.03 and prior. The program will execute specially crafted malicious dll files placed on the target machine.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16659</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-08</t>
+  </si>
+  <si>
+    <t>Assp Project</t>
+  </si>
+  <si>
+    <t>Assp</t>
+  </si>
+  <si>
+    <t>1.9.8.13030</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The Gentoo mail-filter/assp package 1.9.8.13030 and earlier allows local users to gain privileges by leveraging access to the assp user account to install a Trojan horse /usr/share/assp/assp.pl script.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16667</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	backintime (aka Back in Time) before 1.1.24 did improper escaping/quoting of file paths used as arguments to the 'notify-send' command, leading to some parts of file paths being executed as shell commands within an os.system call in qt4/plugins/notifyplugin.py. This could allow an attacker to craft an unreadable file with a specific name to run arbitrary shell commands.	</t>
+  </si>
+  <si>
+    <t>CVE-2014-3150</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Livebox 1.1 Firmware</t>
+  </si>
+  <si>
+    <t>26014a</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>Single system</t>
+  </si>
+  <si>
+    <t>Obtain Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Livebox 1.1 allows remote authenticated users to upload arbitrary configuration files, download the configuration file, or obtain sensitive information via crafted Javascript.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1453</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>Security Access Manager 9.0 Firmware</t>
+  </si>
+  <si>
+    <t>9.0.3.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	IBM Security Access Manager Appliance 9.0.3 could allow a remote authenticated attacker to execute arbitrary commands on the system. By sending a specially-crafted request, an attacker could exploit this vulnerability to execute arbitrary commands on the system. IBM X-Force ID: 128372.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2866</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the /api/CONFIG/backup functionality of Circle with Disney. Specially crafted network packets can cause an OS command injection. An attacker can send an HTTP request to trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2890</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the /api/CONFIG/restore functionality of Circle with Disney running firmware 2.0.1. Specially crafted network packets can cause an OS command injection. An attacker can send an HTTP request trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2916</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the /api/CONFIG/restore functionality of Circle with Disney running firmware 2.0.1. Specially crafted network packets can cause an arbitrary file to be overwritten. An attacker can send an HTTP request to trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2917</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the notifications functionality of Circle with Disney running firmware 2.0.1. Specially crafted network packets can cause an OS command injection. An attacker can send an HTTP request to trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-5712</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-11-21</t>
+  </si>
+  <si>
+    <t>Intel</t>
+  </si>
+  <si>
+    <t>Manageability Engine Firmware</t>
+  </si>
+  <si>
+    <t>11.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Buffer overflow in Active Management Technology (AMT) in Intel Manageability Engine Firmware 8.x/9.x/10.x/11.0/11.5/11.6/11.7/11.10/11.20 allows attacker with remote Admin access to the system to execute arbitrary code with AMT execution privilege.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8197</t>
+  </si>
+  <si>
+    <t>Huawei</t>
+  </si>
+  <si>
+    <t>Fusionsphere</t>
+  </si>
+  <si>
+    <t>V100r006c00spc102(nfv)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	FusionSphere V100R006C00SPC102(NFV) has a command injection vulnerability. An authenticated, remote attacker could craft packets with malicious strings and send them to a target device. Successful exploit could allow the attacker to launch a command injection attack and execute system commands.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-11169</t>
+  </si>
+  <si>
+    <t>Iball</t>
+  </si>
+  <si>
+    <t>Ib-wra300n3gt Firmware</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Privilege Escalation on iBall iB-WRA300N3GT iB-WRA300N3GT_1.1.1 devices allows remote authenticated users to obtain root privileges by leveraging a guest/user/normal account to submit a modified privilege parameter to /form2userconfig.cgi.	</t>
+  </si>
+  <si>
     <t>CVE-2017-12277</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2017-11-02</t>
-  </si>
-  <si>
-    <t>Cisco</t>
-  </si>
-  <si>
     <t>Fxos</t>
   </si>
   <si>
-    <t>2.0.1</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>Single system</t>
-  </si>
-  <si>
-    <t>Execute Code</t>
-  </si>
-  <si>
     <t xml:space="preserve">	A vulnerability in the Smart Licensing Manager service of the Cisco Firepower 4100 Series Next-Generation Firewall (NGFW) and Firepower 9300 Security Appliance could allow an authenticated, remote attacker to inject arbitrary commands that could be executed with root privileges. The vulnerability is due to insufficient input validation of certain Smart Licensing configuration parameters. An authenticated attacker could exploit the vulnerability by configuring a malicious URL within the affected feature. A successful exploit could allow the attacker to execute arbitrary commands with root privileges. This vulnerability affects the following Cisco Firepower Security products running FX-OS code trains 1.1.3, 1.1.4, and 2.0.1 (versions 2.1.1, 2.2.1, and 2.2.2 are not affected): Firepower 4100 Series Next-Generation Firewall and Firepower 9300 Security Appliance. Cisco Bug IDs: CSCvb86863.	</t>
   </si>
   <si>
+    <t>CVE-2017-12636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	CouchDB administrative users can configure the database server via HTTP(S). Some of the configuration options include paths for operating system-level binaries that are subsequently launched by CouchDB. This allows an admin user in Apache CouchDB before 1.7.0 and 2.x before 2.1.1 to execute arbitrary shell commands as the CouchDB user, including downloading and executing scripts from the public internet.	</t>
+  </si>
+  <si>
     <t>CVE-2017-16522</t>
   </si>
   <si>
     <t xml:space="preserve">	MitraStar GPT-2541GNAC (HGU) 1.00(VNJ0)b1 and DSL-100HN-T1 ES_113WJY0b16 devices allow remote authenticated users to obtain root access by specifying /bin/sh as the command to execute.	</t>
   </si>
   <si>
-    <t>CVE-2017-12280</t>
-  </si>
-  <si>
-    <t>Wireless Lan Controller Software</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>7.8</t>
-  </si>
-  <si>
-    <t>Denial Of ServiceOverflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	A vulnerability in the Control and Provisioning of Wireless Access Points (CAPWAP) Discovery Request parsing functionality of Cisco Wireless LAN Controllers could allow an unauthenticated, remote attacker to cause an affected device to restart unexpectedly, resulting in a denial of service (DoS) condition. The vulnerability is due to incomplete input validation of fields in CAPWAP Discovery Request packets by the affected device. An attacker could exploit this vulnerability by sending crafted CAPWAP Discovery Request packets to an affected device. A successful exploit could allow the attacker to cause the affected device to restart unexpectedly, resulting in a DoS condition. Cisco Bug IDs: CSCvb95842.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000121</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2017-11-01</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Webkitgtk</t>
-  </si>
-  <si>
-    <t>Webkitgtk+</t>
-  </si>
-  <si>
-    <t>2.16.2</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>Partial</t>
-  </si>
-  <si>
-    <t>Overflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The UNIX IPC layer in WebKit, including WebKitGTK+ prior to 2.16.3, does not properly validate message size metadata, allowing a compromised secondary process to trigger an integer overflow and subsequent buffer overflow in the UI process. This vulnerability does not affect Apple products.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000152</t>
-  </si>
-  <si>
-    <t>Mahara</t>
-  </si>
-  <si>
-    <t>15.10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Mahara 15.04 before 15.04.7 and 15.10 before 15.10.3 running PHP 5.3 are vulnerable to one user being logged in as another user on a separate computer as the same session ID is served. This situation can occur when a user takes an action that forces another user to be logged out of Mahara, such as an admin changing another user's account settings.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000153</t>
-  </si>
-  <si>
-    <t>16.04.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Mahara 15.04 before 15.04.10 and 15.10 before 15.10.6 and 16.04 before 16.04.4 are vulnerable to incorrect access control after the password reset link is sent via email and then user changes default email, Mahara fails to invalidate old link.Consequently the link in email can be used to gain access to the user's account.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-1000154</t>
-  </si>
-  <si>
-    <t>16.04.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	Mahara 15.04 before 15.04.8 and 15.10 before 15.10.4 and 16.04 before 16.04.2 are vulnerable to some authentication methods, which do not use Mahara's built-in login form, still allowing users to log in even if their institution was expired or suspended.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-12243</t>
-  </si>
-  <si>
-    <t>Unified Computing System Manager Firmware</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	A vulnerability in the Cisco Unified Computing System (UCS) Manager, Cisco Firepower 4100 Series Next-Generation Firewall (NGFW), and Cisco Firepower 9300 Security Appliance could allow an authenticated, local attacker to obtain root shell privileges on the device, aka Command Injection. The vulnerability is due to improper validation of string input in the shell application. An attacker could exploit this vulnerability through the use of malicious commands. A successful exploit could allow the attacker to obtain root shell privileges on the device. Cisco Bug IDs: CSCvf20741, CSCvf60078.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-12261</t>
-  </si>
-  <si>
-    <t>Identity Services Engine Virtual Appliance</t>
-  </si>
-  <si>
-    <t>2.1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	A vulnerability in the restricted shell of the Cisco Identity Services Engine (ISE) that is accessible via SSH could allow an authenticated, local attacker to run arbitrary CLI commands with elevated privileges. The vulnerability is due to incomplete input validation of the user input for CLI commands issued at the restricted shell. An attacker could exploit this vulnerability by authenticating to the targeted device and executing commands that could lead to elevated privileges. An attacker would need valid user credentials to the device to exploit this vulnerability. The vulnerability affects the following Cisco Identity Services Engine (ISE) products running Release 1.4, 2.0, 2.0.1, 2.1.0: ISE, ISE Express, ISE Virtual Appliance. Cisco Bug IDs: CSCve74916.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16525</t>
-  </si>
-  <si>
-    <t>Linux</t>
-  </si>
-  <si>
-    <t>Linux Kernel</t>
-  </si>
-  <si>
-    <t>4.13.7</t>
-  </si>
-  <si>
-    <t>Denial Of Service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The usb_serial_console_disconnect function in drivers/usb/serial/console.c in the Linux kernel before 4.13.8 allows local users to cause a denial of service (use-after-free and system crash) or possibly have unspecified other impact via a crafted USB device, related to disconnection and failed setup.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16526</t>
-  </si>
-  <si>
-    <t>4.13.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	drivers/uwb/uwbd.c in the Linux kernel before 4.13.6 allows local users to cause a denial of service (general protection fault and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16527</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	sound/usb/mixer.c in the Linux kernel before 4.13.8 allows local users to cause a denial of service (snd_usb_mixer_interrupt use-after-free and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16528</t>
-  </si>
-  <si>
-    <t>4.13.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	sound/core/seq_device.c in the Linux kernel before 4.13.4 allows local users to cause a denial of service (snd_rawmidi_dev_seq_free use-after-free and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16529</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The snd_usb_create_streams function in sound/usb/card.c in the Linux kernel before 4.13.6 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16530</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The uas driver in the Linux kernel before 4.13.6 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device, related to drivers/usb/storage/uas-detect.h and drivers/usb/storage/uas.c.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16531</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	drivers/usb/core/config.c in the Linux kernel before 4.13.6 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device, related to the USB_DT_INTERFACE_ASSOCIATION descriptor.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16532</t>
-  </si>
-  <si>
-    <t>4.13.11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The get_endpoints function in drivers/usb/misc/usbtest.c in the Linux kernel through 4.13.11 allows local users to cause a denial of service (NULL pointer dereference and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16533</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The usbhid_parse function in drivers/hid/usbhid/hid-core.c in the Linux kernel before 4.13.8 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16534</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The cdc_parse_cdc_header function in drivers/usb/core/message.c in the Linux kernel before 4.13.6 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16535</t>
-  </si>
-  <si>
-    <t>4.13.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The usb_get_bos_descriptor function in drivers/usb/core/config.c in the Linux kernel before 4.13.10 allows local users to cause a denial of service (out-of-bounds read and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The cx231xx_usb_probe function in drivers/media/usb/cx231xx/cx231xx-cards.c in the Linux kernel through 4.13.11 allows local users to cause a denial of service (NULL pointer dereference and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16537</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	The imon_probe function in drivers/media/rc/imon.c in the Linux kernel through 4.13.11 allows local users to cause a denial of service (NULL pointer dereference and system crash) or possibly have unspecified other impact via a crafted USB device.	</t>
-  </si>
-  <si>
-    <t>CVE-2017-16538</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	drivers/media/usb/dvb-usb-v2/lmedm04.c in the Linux kernel through 4.13.11 allows local users to cause a denial of service (general protection fault and system crash) or possibly have unspecified other impact via a crafted USB device, related to a missing warm-start check and incorrect attach timing (dm04_lme2510_frontend_attach versus dm04_lme2510_tuner).	</t>
+    <t>CVE-2017-16641</t>
+  </si>
+  <si>
+    <t>Cacti</t>
+  </si>
+  <si>
+    <t>1.1.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	lib/rrd.php in Cacti 1.1.27 allows remote authenticated administrators to execute arbitrary OS commands via the path_rrdtool parameter in an action=save request to settings.php.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-16660</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Cacti 1.1.27 allows remote authenticated administrators to conduct Remote Code Execution attacks by placing the Log Path under the web root, and then making a remote_agent.php request containing PHP code in a Client-ip header.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-1000203</t>
+  </si>
+  <si>
+    <t>Cern</t>
+  </si>
+  <si>
+    <t>Root</t>
+  </si>
+  <si>
+    <t>6.9.03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	ROOT version 6.9.03 and below is vulnerable to an authenticated shell metacharacter injection in the rootd daemon resulting in remote code execution	</t>
   </si>
 </sst>
 </file>
@@ -687,7 +1320,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,32 +1415,34 @@
       <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="N2" t="s"/>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>22</v>
@@ -822,39 +1457,39 @@
         <v>23</v>
       </c>
       <c r="L3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>33</v>
-      </c>
-      <c r="M3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
@@ -869,45 +1504,45 @@
         <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="M4" t="s">
         <v>25</v>
       </c>
       <c r="N4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -922,42 +1557,42 @@
         <v>25</v>
       </c>
       <c r="N5" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
         <v>23</v>
@@ -969,42 +1604,42 @@
         <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
         <v>23</v>
@@ -1017,39 +1652,39 @@
       </c>
       <c r="N7" t="s"/>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
         <v>23</v>
@@ -1060,41 +1695,43 @@
       <c r="M8" t="s">
         <v>25</v>
       </c>
-      <c r="N8" t="s"/>
+      <c r="N8" t="s">
+        <v>26</v>
+      </c>
       <c r="O8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
         <v>23</v>
@@ -1105,32 +1742,34 @@
       <c r="M9" t="s">
         <v>25</v>
       </c>
-      <c r="N9" t="s"/>
+      <c r="N9" t="s">
+        <v>26</v>
+      </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="G10" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
         <v>22</v>
@@ -1150,32 +1789,34 @@
       <c r="M10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" t="s"/>
+      <c r="N10" t="s">
+        <v>78</v>
+      </c>
       <c r="O10" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>22</v>
@@ -1195,32 +1836,34 @@
       <c r="M11" t="s">
         <v>25</v>
       </c>
-      <c r="N11" t="s"/>
+      <c r="N11" t="s">
+        <v>78</v>
+      </c>
       <c r="O11" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H12" t="s">
         <v>22</v>
@@ -1238,36 +1881,36 @@
         <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="N12" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="O12" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
         <v>22</v>
@@ -1287,34 +1930,32 @@
       <c r="M13" t="s">
         <v>25</v>
       </c>
-      <c r="N13" t="s">
-        <v>42</v>
-      </c>
+      <c r="N13" t="s"/>
       <c r="O13" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>22</v>
@@ -1334,34 +1975,24 @@
       <c r="M14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" t="s">
-        <v>76</v>
-      </c>
+      <c r="N14" t="s"/>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" t="s">
-        <v>84</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C15" t="s"/>
+      <c r="D15" t="s"/>
+      <c r="E15" t="s"/>
+      <c r="F15" t="s"/>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H15" t="s">
         <v>22</v>
@@ -1382,33 +2013,33 @@
         <v>25</v>
       </c>
       <c r="N15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="O15" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
         <v>22</v>
@@ -1428,34 +2059,32 @@
       <c r="M16" t="s">
         <v>25</v>
       </c>
-      <c r="N16" t="s">
-        <v>76</v>
-      </c>
+      <c r="N16" t="s"/>
       <c r="O16" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
         <v>22</v>
@@ -1476,33 +2105,33 @@
         <v>25</v>
       </c>
       <c r="N17" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
       <c r="O17" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="G18" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
         <v>22</v>
@@ -1523,33 +2152,33 @@
         <v>25</v>
       </c>
       <c r="N18" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
         <v>22</v>
@@ -1570,33 +2199,25 @@
         <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O19" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" t="s">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C20" t="s"/>
+      <c r="D20" t="s"/>
+      <c r="E20" t="s"/>
+      <c r="F20" t="s"/>
       <c r="G20" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H20" t="s">
         <v>22</v>
@@ -1617,33 +2238,33 @@
         <v>25</v>
       </c>
       <c r="N20" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" t="s">
-        <v>97</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
         <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="F21" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="H21" t="s">
         <v>22</v>
@@ -1663,34 +2284,32 @@
       <c r="M21" t="s">
         <v>25</v>
       </c>
-      <c r="N21" t="s">
-        <v>42</v>
-      </c>
+      <c r="N21" t="s"/>
       <c r="O21" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="G22" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="H22" t="s">
         <v>22</v>
@@ -1702,7 +2321,7 @@
         <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="L22" t="s">
         <v>24</v>
@@ -1710,34 +2329,32 @@
       <c r="M22" t="s">
         <v>25</v>
       </c>
-      <c r="N22" t="s">
-        <v>76</v>
-      </c>
+      <c r="N22" t="s"/>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>135</v>
       </c>
       <c r="B23" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C23" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="F23" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="H23" t="s">
         <v>22</v>
@@ -1749,7 +2366,7 @@
         <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="L23" t="s">
         <v>24</v>
@@ -1757,34 +2374,32 @@
       <c r="M23" t="s">
         <v>25</v>
       </c>
-      <c r="N23" t="s">
-        <v>76</v>
-      </c>
+      <c r="N23" t="s"/>
       <c r="O23" t="s">
-        <v>103</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>139</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="G24" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="H24" t="s">
         <v>22</v>
@@ -1796,7 +2411,7 @@
         <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s">
         <v>24</v>
@@ -1804,58 +2419,2787 @@
       <c r="M24" t="s">
         <v>25</v>
       </c>
-      <c r="N24" t="s">
-        <v>76</v>
-      </c>
+      <c r="N24" t="s"/>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" t="s">
-        <v>106</v>
+        <v>141</v>
       </c>
       <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
+        <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L25" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" t="s">
+        <v>25</v>
+      </c>
+      <c r="N25" t="s">
+        <v>26</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E26" t="s">
+        <v>137</v>
+      </c>
+      <c r="F26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G26" t="s">
+        <v>132</v>
+      </c>
+      <c r="H26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" t="s">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26" t="s">
+        <v>133</v>
+      </c>
+      <c r="L26" t="s">
+        <v>24</v>
+      </c>
+      <c r="M26" t="s">
+        <v>25</v>
+      </c>
+      <c r="N26" t="s">
+        <v>26</v>
+      </c>
+      <c r="O26" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" t="s">
+        <v>145</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E27" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" t="s">
+        <v>22</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27" t="s">
+        <v>133</v>
+      </c>
+      <c r="L27" t="s">
+        <v>24</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" t="s">
+        <v>147</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>137</v>
+      </c>
+      <c r="F28" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" t="s">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28" t="s">
+        <v>133</v>
+      </c>
+      <c r="L28" t="s">
+        <v>24</v>
+      </c>
+      <c r="M28" t="s">
+        <v>25</v>
+      </c>
+      <c r="N28" t="s">
+        <v>26</v>
+      </c>
+      <c r="O28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" t="s">
+        <v>132</v>
+      </c>
+      <c r="H29" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" t="s">
+        <v>22</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" t="s">
+        <v>133</v>
+      </c>
+      <c r="L29" t="s">
+        <v>24</v>
+      </c>
+      <c r="M29" t="s">
+        <v>25</v>
+      </c>
+      <c r="N29" t="s">
+        <v>26</v>
+      </c>
+      <c r="O29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" t="s">
+        <v>151</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" t="s">
+        <v>136</v>
+      </c>
+      <c r="E30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" t="s">
+        <v>132</v>
+      </c>
+      <c r="H30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J30" t="s">
+        <v>22</v>
+      </c>
+      <c r="K30" t="s">
+        <v>133</v>
+      </c>
+      <c r="L30" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" t="s">
+        <v>25</v>
+      </c>
+      <c r="N30" t="s">
+        <v>26</v>
+      </c>
+      <c r="O30" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" t="s"/>
+      <c r="D31" t="s"/>
+      <c r="E31" t="s"/>
+      <c r="F31" t="s"/>
+      <c r="G31" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" t="s">
+        <v>24</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31" t="s">
+        <v>40</v>
+      </c>
+      <c r="O31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" t="s"/>
+      <c r="D32" t="s"/>
+      <c r="E32" t="s"/>
+      <c r="F32" t="s"/>
+      <c r="G32" t="s">
+        <v>132</v>
+      </c>
+      <c r="H32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" t="s">
+        <v>133</v>
+      </c>
+      <c r="L32" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" t="s">
+        <v>25</v>
+      </c>
+      <c r="N32" t="s">
+        <v>40</v>
+      </c>
+      <c r="O32" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" t="s"/>
+      <c r="D33" t="s"/>
+      <c r="E33" t="s"/>
+      <c r="F33" t="s"/>
+      <c r="G33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33" t="s">
+        <v>133</v>
+      </c>
+      <c r="L33" t="s">
+        <v>24</v>
+      </c>
+      <c r="M33" t="s">
+        <v>25</v>
+      </c>
+      <c r="N33" t="s">
+        <v>40</v>
+      </c>
+      <c r="O33" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" t="s">
+        <v>158</v>
+      </c>
+      <c r="B34" t="s">
         <v>16</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>159</v>
+      </c>
+      <c r="E34" t="s">
+        <v>160</v>
+      </c>
+      <c r="F34" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" t="s">
+        <v>22</v>
+      </c>
+      <c r="J34" t="s">
+        <v>22</v>
+      </c>
+      <c r="K34" t="s">
+        <v>133</v>
+      </c>
+      <c r="L34" t="s">
+        <v>24</v>
+      </c>
+      <c r="M34" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" t="s">
+        <v>26</v>
+      </c>
+      <c r="O34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" t="s">
+        <v>22</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35" t="s">
+        <v>133</v>
+      </c>
+      <c r="L35" t="s">
+        <v>24</v>
+      </c>
+      <c r="M35" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" t="s">
+        <v>26</v>
+      </c>
+      <c r="O35" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B36" t="s">
+        <v>154</v>
+      </c>
+      <c r="C36" t="s"/>
+      <c r="D36" t="s"/>
+      <c r="E36" t="s"/>
+      <c r="F36" t="s"/>
+      <c r="G36" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" t="s">
+        <v>22</v>
+      </c>
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36" t="s">
+        <v>133</v>
+      </c>
+      <c r="L36" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" t="s"/>
+      <c r="O36" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B37" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" t="s"/>
+      <c r="D37" t="s"/>
+      <c r="E37" t="s"/>
+      <c r="F37" t="s"/>
+      <c r="G37" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" t="s">
+        <v>22</v>
+      </c>
+      <c r="J37" t="s">
+        <v>22</v>
+      </c>
+      <c r="K37" t="s">
+        <v>133</v>
+      </c>
+      <c r="L37" t="s">
+        <v>24</v>
+      </c>
+      <c r="M37" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" t="s">
+        <v>40</v>
+      </c>
+      <c r="O37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" t="s">
+        <v>154</v>
+      </c>
+      <c r="C38" t="s"/>
+      <c r="D38" t="s"/>
+      <c r="E38" t="s"/>
+      <c r="F38" t="s"/>
+      <c r="G38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" t="s">
+        <v>22</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" t="s">
+        <v>24</v>
+      </c>
+      <c r="M38" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" t="s">
+        <v>40</v>
+      </c>
+      <c r="O38" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B39" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" t="s"/>
+      <c r="D39" t="s"/>
+      <c r="E39" t="s"/>
+      <c r="F39" t="s"/>
+      <c r="G39" t="s">
+        <v>132</v>
+      </c>
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" t="s">
+        <v>133</v>
+      </c>
+      <c r="L39" t="s">
+        <v>24</v>
+      </c>
+      <c r="M39" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" t="s"/>
+      <c r="D40" t="s"/>
+      <c r="E40" t="s"/>
+      <c r="F40" t="s"/>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>22</v>
+      </c>
+      <c r="I40" t="s">
+        <v>22</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" t="s">
+        <v>133</v>
+      </c>
+      <c r="L40" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" t="s">
+        <v>25</v>
+      </c>
+      <c r="N40" t="s">
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" t="s">
+        <v>176</v>
+      </c>
+      <c r="B41" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" t="s"/>
+      <c r="D41" t="s"/>
+      <c r="E41" t="s"/>
+      <c r="F41" t="s"/>
+      <c r="G41" t="s">
+        <v>132</v>
+      </c>
+      <c r="H41" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" t="s">
+        <v>22</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>133</v>
+      </c>
+      <c r="L41" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" t="s">
+        <v>25</v>
+      </c>
+      <c r="N41" t="s">
+        <v>40</v>
+      </c>
+      <c r="O41" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" t="s">
+        <v>178</v>
+      </c>
+      <c r="B42" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" t="s"/>
+      <c r="D42" t="s"/>
+      <c r="E42" t="s"/>
+      <c r="F42" t="s"/>
+      <c r="G42" t="s">
+        <v>132</v>
+      </c>
+      <c r="H42" t="s">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>133</v>
+      </c>
+      <c r="L42" t="s">
+        <v>24</v>
+      </c>
+      <c r="M42" t="s">
+        <v>25</v>
+      </c>
+      <c r="N42" t="s">
+        <v>40</v>
+      </c>
+      <c r="O42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" t="s">
+        <v>179</v>
+      </c>
+      <c r="B43" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" t="s"/>
+      <c r="D43" t="s"/>
+      <c r="E43" t="s"/>
+      <c r="F43" t="s"/>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43" t="s">
+        <v>133</v>
+      </c>
+      <c r="L43" t="s">
+        <v>24</v>
+      </c>
+      <c r="M43" t="s">
+        <v>25</v>
+      </c>
+      <c r="N43" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B44" t="s">
+        <v>154</v>
+      </c>
+      <c r="C44" t="s"/>
+      <c r="D44" t="s"/>
+      <c r="E44" t="s"/>
+      <c r="F44" t="s"/>
+      <c r="G44" t="s">
+        <v>132</v>
+      </c>
+      <c r="H44" t="s">
+        <v>22</v>
+      </c>
+      <c r="I44" t="s">
+        <v>22</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44" t="s">
+        <v>133</v>
+      </c>
+      <c r="L44" t="s">
+        <v>24</v>
+      </c>
+      <c r="M44" t="s">
+        <v>25</v>
+      </c>
+      <c r="N44" t="s">
+        <v>40</v>
+      </c>
+      <c r="O44" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" t="s">
+        <v>181</v>
+      </c>
+      <c r="B45" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" t="s"/>
+      <c r="D45" t="s"/>
+      <c r="E45" t="s"/>
+      <c r="F45" t="s"/>
+      <c r="G45" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45" t="s">
+        <v>133</v>
+      </c>
+      <c r="L45" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N45" t="s">
+        <v>40</v>
+      </c>
+      <c r="O45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" t="s">
+        <v>182</v>
+      </c>
+      <c r="B46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C46" t="s">
         <v>17</v>
       </c>
-      <c r="D25" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+      <c r="E46" t="s">
+        <v>184</v>
+      </c>
+      <c r="F46" t="s">
+        <v>185</v>
+      </c>
+      <c r="G46" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s">
+        <v>22</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46" t="s">
+        <v>133</v>
+      </c>
+      <c r="L46" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" t="s">
+        <v>25</v>
+      </c>
+      <c r="N46" t="s">
+        <v>102</v>
+      </c>
+      <c r="O46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" t="s">
+        <v>187</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s">
+        <v>188</v>
+      </c>
+      <c r="E47" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" t="s">
+        <v>190</v>
+      </c>
+      <c r="G47" t="s">
+        <v>132</v>
+      </c>
+      <c r="H47" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" t="s">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47" t="s">
+        <v>133</v>
+      </c>
+      <c r="L47" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" t="s">
+        <v>25</v>
+      </c>
+      <c r="N47" t="s">
+        <v>102</v>
+      </c>
+      <c r="O47" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+      <c r="E48" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" t="s">
+        <v>53</v>
+      </c>
+      <c r="G48" t="s">
+        <v>132</v>
+      </c>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s">
+        <v>22</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48" t="s">
+        <v>133</v>
+      </c>
+      <c r="L48" t="s">
+        <v>24</v>
+      </c>
+      <c r="M48" t="s">
+        <v>25</v>
+      </c>
+      <c r="N48" t="s"/>
+      <c r="O48" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" t="s">
+        <v>194</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" t="s">
+        <v>137</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" t="s">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49" t="s">
+        <v>133</v>
+      </c>
+      <c r="L49" t="s">
+        <v>24</v>
+      </c>
+      <c r="M49" t="s">
+        <v>25</v>
+      </c>
+      <c r="N49" t="s">
+        <v>195</v>
+      </c>
+      <c r="O49" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" t="s">
+        <v>197</v>
+      </c>
+      <c r="B50" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" t="s">
+        <v>137</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50" t="s">
+        <v>133</v>
+      </c>
+      <c r="L50" t="s">
+        <v>24</v>
+      </c>
+      <c r="M50" t="s">
+        <v>25</v>
+      </c>
+      <c r="N50" t="s">
+        <v>195</v>
+      </c>
+      <c r="O50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" t="s">
+        <v>199</v>
+      </c>
+      <c r="B51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D51" t="s">
+        <v>136</v>
+      </c>
+      <c r="E51" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
+        <v>132</v>
+      </c>
+      <c r="H51" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51" t="s">
+        <v>133</v>
+      </c>
+      <c r="L51" t="s">
+        <v>24</v>
+      </c>
+      <c r="M51" t="s">
+        <v>25</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" t="s">
+        <v>201</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>202</v>
+      </c>
+      <c r="F52" t="s">
+        <v>203</v>
+      </c>
+      <c r="G52" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52" t="s">
+        <v>133</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="s">
+        <v>25</v>
+      </c>
+      <c r="N52" t="s">
+        <v>204</v>
+      </c>
+      <c r="O52" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>36</v>
+      </c>
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" t="s">
+        <v>207</v>
+      </c>
+      <c r="F53" t="s"/>
+      <c r="G53" t="s">
+        <v>132</v>
+      </c>
+      <c r="H53" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53" t="s">
+        <v>133</v>
+      </c>
+      <c r="L53" t="s">
+        <v>24</v>
+      </c>
+      <c r="M53" t="s">
+        <v>25</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" t="s">
+        <v>210</v>
+      </c>
+      <c r="F54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54" t="s">
+        <v>133</v>
+      </c>
+      <c r="L54" t="s">
+        <v>24</v>
+      </c>
+      <c r="M54" t="s">
+        <v>25</v>
+      </c>
+      <c r="N54" t="s">
+        <v>204</v>
+      </c>
+      <c r="O54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" t="s">
+        <v>213</v>
+      </c>
+      <c r="B55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+      <c r="E55" t="s">
+        <v>214</v>
+      </c>
+      <c r="F55" t="s">
+        <v>53</v>
+      </c>
+      <c r="G55" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55" t="s">
+        <v>133</v>
+      </c>
+      <c r="L55" t="s">
+        <v>24</v>
+      </c>
+      <c r="M55" t="s">
+        <v>25</v>
+      </c>
+      <c r="N55" t="s">
+        <v>204</v>
+      </c>
+      <c r="O55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+      <c r="E56" t="s">
+        <v>217</v>
+      </c>
+      <c r="F56" t="s">
+        <v>218</v>
+      </c>
+      <c r="G56" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" t="s">
+        <v>22</v>
+      </c>
+      <c r="I56" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" t="s">
+        <v>24</v>
+      </c>
+      <c r="M56" t="s">
+        <v>25</v>
+      </c>
+      <c r="N56" t="s">
+        <v>204</v>
+      </c>
+      <c r="O56" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" t="s">
+        <v>220</v>
+      </c>
+      <c r="B57" t="s">
+        <v>62</v>
+      </c>
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" t="s">
+        <v>218</v>
+      </c>
+      <c r="G57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" t="s">
+        <v>22</v>
+      </c>
+      <c r="K57" t="s">
+        <v>133</v>
+      </c>
+      <c r="L57" t="s">
+        <v>24</v>
+      </c>
+      <c r="M57" t="s">
+        <v>25</v>
+      </c>
+      <c r="N57" t="s">
+        <v>204</v>
+      </c>
+      <c r="O57" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" t="s">
+        <v>223</v>
+      </c>
+      <c r="B58" t="s">
         <v>74</v>
       </c>
-      <c r="F25" t="s">
-        <v>93</v>
-      </c>
-      <c r="G25" t="s">
-        <v>66</v>
-      </c>
-      <c r="H25" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J25" t="s">
-        <v>22</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="C58" t="s">
+        <v>36</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>224</v>
+      </c>
+      <c r="F58" t="s">
+        <v>225</v>
+      </c>
+      <c r="G58" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58" t="s">
+        <v>24</v>
+      </c>
+      <c r="M58" t="s">
+        <v>25</v>
+      </c>
+      <c r="N58" t="s">
+        <v>226</v>
+      </c>
+      <c r="O58" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" t="s">
+        <v>132</v>
+      </c>
+      <c r="H59" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s">
+        <v>22</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59" t="s">
+        <v>133</v>
+      </c>
+      <c r="L59" t="s">
+        <v>24</v>
+      </c>
+      <c r="M59" t="s">
+        <v>25</v>
+      </c>
+      <c r="N59" t="s">
+        <v>226</v>
+      </c>
+      <c r="O59" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" t="s">
+        <v>230</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>36</v>
+      </c>
+      <c r="D60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E60" t="s">
+        <v>76</v>
+      </c>
+      <c r="F60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60" t="s">
+        <v>132</v>
+      </c>
+      <c r="H60" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" t="s">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60" t="s">
+        <v>133</v>
+      </c>
+      <c r="L60" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" t="s">
+        <v>25</v>
+      </c>
+      <c r="N60" t="s">
+        <v>226</v>
+      </c>
+      <c r="O60" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" t="s">
+        <v>232</v>
+      </c>
+      <c r="B61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C61" t="s">
+        <v>36</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" t="s">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>22</v>
+      </c>
+      <c r="K61" t="s">
+        <v>133</v>
+      </c>
+      <c r="L61" t="s">
+        <v>24</v>
+      </c>
+      <c r="M61" t="s">
+        <v>25</v>
+      </c>
+      <c r="N61" t="s">
+        <v>226</v>
+      </c>
+      <c r="O61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" t="s">
+        <v>234</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62" t="s">
+        <v>76</v>
+      </c>
+      <c r="F62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" t="s">
+        <v>22</v>
+      </c>
+      <c r="I62" t="s">
+        <v>22</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62" t="s">
+        <v>133</v>
+      </c>
+      <c r="L62" t="s">
+        <v>24</v>
+      </c>
+      <c r="M62" t="s">
+        <v>25</v>
+      </c>
+      <c r="N62" t="s">
+        <v>226</v>
+      </c>
+      <c r="O62" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" t="s">
+        <v>236</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" t="s">
+        <v>76</v>
+      </c>
+      <c r="F63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63" t="s">
+        <v>132</v>
+      </c>
+      <c r="H63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" t="s">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>22</v>
+      </c>
+      <c r="K63" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63" t="s">
+        <v>24</v>
+      </c>
+      <c r="M63" t="s">
+        <v>25</v>
+      </c>
+      <c r="N63" t="s">
+        <v>226</v>
+      </c>
+      <c r="O63" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" t="s">
+        <v>238</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+      <c r="C64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" t="s">
+        <v>76</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+      <c r="G64" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" t="s">
+        <v>22</v>
+      </c>
+      <c r="I64" t="s">
+        <v>22</v>
+      </c>
+      <c r="J64" t="s">
+        <v>22</v>
+      </c>
+      <c r="K64" t="s">
+        <v>133</v>
+      </c>
+      <c r="L64" t="s">
+        <v>24</v>
+      </c>
+      <c r="M64" t="s">
+        <v>25</v>
+      </c>
+      <c r="N64" t="s">
+        <v>226</v>
+      </c>
+      <c r="O64" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" t="s">
+        <v>239</v>
+      </c>
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" t="s">
+        <v>76</v>
+      </c>
+      <c r="F65" t="s">
+        <v>77</v>
+      </c>
+      <c r="G65" t="s">
+        <v>132</v>
+      </c>
+      <c r="H65" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" t="s">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>22</v>
+      </c>
+      <c r="K65" t="s">
+        <v>133</v>
+      </c>
+      <c r="L65" t="s">
+        <v>24</v>
+      </c>
+      <c r="M65" t="s">
+        <v>25</v>
+      </c>
+      <c r="N65" t="s">
+        <v>240</v>
+      </c>
+      <c r="O65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" t="s">
+        <v>242</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" t="s">
+        <v>75</v>
+      </c>
+      <c r="E66" t="s">
+        <v>76</v>
+      </c>
+      <c r="F66" t="s">
+        <v>77</v>
+      </c>
+      <c r="G66" t="s">
+        <v>132</v>
+      </c>
+      <c r="H66" t="s">
+        <v>22</v>
+      </c>
+      <c r="I66" t="s">
+        <v>22</v>
+      </c>
+      <c r="J66" t="s">
+        <v>22</v>
+      </c>
+      <c r="K66" t="s">
+        <v>133</v>
+      </c>
+      <c r="L66" t="s">
+        <v>24</v>
+      </c>
+      <c r="M66" t="s">
+        <v>25</v>
+      </c>
+      <c r="N66" t="s">
+        <v>226</v>
+      </c>
+      <c r="O66" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" t="s">
+        <v>244</v>
+      </c>
+      <c r="B67" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" t="s">
+        <v>76</v>
+      </c>
+      <c r="F67" t="s">
+        <v>77</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" t="s">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>22</v>
+      </c>
+      <c r="K67" t="s">
+        <v>133</v>
+      </c>
+      <c r="L67" t="s">
+        <v>24</v>
+      </c>
+      <c r="M67" t="s">
+        <v>25</v>
+      </c>
+      <c r="N67" t="s">
+        <v>226</v>
+      </c>
+      <c r="O67" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" t="s">
+        <v>246</v>
+      </c>
+      <c r="B68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C68" t="s">
+        <v>36</v>
+      </c>
+      <c r="D68" t="s">
+        <v>247</v>
+      </c>
+      <c r="E68" t="s">
+        <v>248</v>
+      </c>
+      <c r="F68" t="s">
+        <v>249</v>
+      </c>
+      <c r="G68" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" t="s">
+        <v>22</v>
+      </c>
+      <c r="I68" t="s">
+        <v>22</v>
+      </c>
+      <c r="J68" t="s">
+        <v>22</v>
+      </c>
+      <c r="K68" t="s">
+        <v>133</v>
+      </c>
+      <c r="L68" t="s">
+        <v>24</v>
+      </c>
+      <c r="M68" t="s">
+        <v>25</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" t="s">
+        <v>251</v>
+      </c>
+      <c r="B69" t="s">
+        <v>101</v>
+      </c>
+      <c r="C69" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E69" t="s">
+        <v>253</v>
+      </c>
+      <c r="F69" t="s">
+        <v>254</v>
+      </c>
+      <c r="G69" t="s">
+        <v>132</v>
+      </c>
+      <c r="H69" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" t="s">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K69" t="s">
+        <v>133</v>
+      </c>
+      <c r="L69" t="s">
+        <v>24</v>
+      </c>
+      <c r="M69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" t="s">
+        <v>256</v>
+      </c>
+      <c r="B70" t="s">
+        <v>257</v>
+      </c>
+      <c r="C70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>258</v>
+      </c>
+      <c r="E70" t="s">
+        <v>259</v>
+      </c>
+      <c r="F70" t="s">
+        <v>260</v>
+      </c>
+      <c r="G70" t="s">
+        <v>132</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>22</v>
+      </c>
+      <c r="J70" t="s">
+        <v>22</v>
+      </c>
+      <c r="K70" t="s">
+        <v>133</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>102</v>
+      </c>
+      <c r="O70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" t="s">
+        <v>257</v>
+      </c>
+      <c r="C71" t="s"/>
+      <c r="D71" t="s"/>
+      <c r="E71" t="s"/>
+      <c r="F71" t="s"/>
+      <c r="G71" t="s">
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" t="s">
+        <v>22</v>
+      </c>
+      <c r="J71" t="s">
+        <v>22</v>
+      </c>
+      <c r="K71" t="s">
+        <v>133</v>
+      </c>
+      <c r="L71" t="s">
+        <v>24</v>
+      </c>
+      <c r="M71" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" t="s">
+        <v>26</v>
+      </c>
+      <c r="O71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" t="s">
+        <v>264</v>
+      </c>
+      <c r="B72" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72" t="s">
+        <v>265</v>
+      </c>
+      <c r="E72" t="s">
+        <v>266</v>
+      </c>
+      <c r="F72" t="s">
+        <v>267</v>
+      </c>
+      <c r="G72" t="s">
+        <v>268</v>
+      </c>
+      <c r="H72" t="s">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s">
+        <v>22</v>
+      </c>
+      <c r="J72" t="s">
+        <v>22</v>
+      </c>
+      <c r="K72" t="s">
         <v>23</v>
       </c>
-      <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" t="s">
-        <v>76</v>
-      </c>
-      <c r="O25" t="s">
-        <v>107</v>
+      <c r="L72" t="s">
+        <v>269</v>
+      </c>
+      <c r="M72" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" t="s">
+        <v>270</v>
+      </c>
+      <c r="O72" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" t="s">
+        <v>272</v>
+      </c>
+      <c r="B73" t="s">
+        <v>35</v>
+      </c>
+      <c r="C73" t="s">
+        <v>36</v>
+      </c>
+      <c r="D73" t="s">
+        <v>273</v>
+      </c>
+      <c r="E73" t="s">
+        <v>274</v>
+      </c>
+      <c r="F73" t="s">
+        <v>275</v>
+      </c>
+      <c r="G73" t="s">
+        <v>268</v>
+      </c>
+      <c r="H73" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" t="s">
+        <v>22</v>
+      </c>
+      <c r="J73" t="s">
+        <v>22</v>
+      </c>
+      <c r="K73" t="s">
+        <v>23</v>
+      </c>
+      <c r="L73" t="s">
+        <v>269</v>
+      </c>
+      <c r="M73" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" t="s">
+        <v>26</v>
+      </c>
+      <c r="O73" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" t="s">
+        <v>277</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" t="s">
+        <v>268</v>
+      </c>
+      <c r="H74" t="s">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s">
+        <v>22</v>
+      </c>
+      <c r="J74" t="s">
+        <v>22</v>
+      </c>
+      <c r="K74" t="s">
+        <v>23</v>
+      </c>
+      <c r="L74" t="s">
+        <v>269</v>
+      </c>
+      <c r="M74" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" t="s">
+        <v>279</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>36</v>
+      </c>
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+      <c r="E75" t="s">
+        <v>160</v>
+      </c>
+      <c r="F75" t="s">
+        <v>161</v>
+      </c>
+      <c r="G75" t="s">
+        <v>268</v>
+      </c>
+      <c r="H75" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s">
+        <v>22</v>
+      </c>
+      <c r="J75" t="s">
+        <v>22</v>
+      </c>
+      <c r="K75" t="s">
+        <v>23</v>
+      </c>
+      <c r="L75" t="s">
+        <v>269</v>
+      </c>
+      <c r="M75" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>36</v>
+      </c>
+      <c r="D76" t="s">
+        <v>159</v>
+      </c>
+      <c r="E76" t="s">
+        <v>160</v>
+      </c>
+      <c r="F76" t="s">
+        <v>161</v>
+      </c>
+      <c r="G76" t="s">
+        <v>268</v>
+      </c>
+      <c r="H76" t="s">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s">
+        <v>22</v>
+      </c>
+      <c r="J76" t="s">
+        <v>22</v>
+      </c>
+      <c r="K76" t="s">
+        <v>23</v>
+      </c>
+      <c r="L76" t="s">
+        <v>269</v>
+      </c>
+      <c r="M76" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" t="s">
+        <v>283</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
+      </c>
+      <c r="D77" t="s">
+        <v>159</v>
+      </c>
+      <c r="E77" t="s">
+        <v>160</v>
+      </c>
+      <c r="F77" t="s">
+        <v>161</v>
+      </c>
+      <c r="G77" t="s">
+        <v>268</v>
+      </c>
+      <c r="H77" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>22</v>
+      </c>
+      <c r="K77" t="s">
+        <v>23</v>
+      </c>
+      <c r="L77" t="s">
+        <v>269</v>
+      </c>
+      <c r="M77" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" t="s"/>
+      <c r="O77" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" t="s">
+        <v>286</v>
+      </c>
+      <c r="C78" t="s">
+        <v>36</v>
+      </c>
+      <c r="D78" t="s">
+        <v>287</v>
+      </c>
+      <c r="E78" t="s">
+        <v>288</v>
+      </c>
+      <c r="F78" t="s">
+        <v>289</v>
+      </c>
+      <c r="G78" t="s">
+        <v>268</v>
+      </c>
+      <c r="H78" t="s">
+        <v>22</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>22</v>
+      </c>
+      <c r="K78" t="s">
+        <v>23</v>
+      </c>
+      <c r="L78" t="s">
+        <v>269</v>
+      </c>
+      <c r="M78" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" t="s">
+        <v>40</v>
+      </c>
+      <c r="O78" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" t="s">
+        <v>291</v>
+      </c>
+      <c r="B79" t="s">
+        <v>154</v>
+      </c>
+      <c r="C79" t="s">
+        <v>36</v>
+      </c>
+      <c r="D79" t="s">
+        <v>292</v>
+      </c>
+      <c r="E79" t="s">
+        <v>293</v>
+      </c>
+      <c r="F79" t="s">
+        <v>294</v>
+      </c>
+      <c r="G79" t="s">
+        <v>268</v>
+      </c>
+      <c r="H79" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>22</v>
+      </c>
+      <c r="K79" t="s">
+        <v>23</v>
+      </c>
+      <c r="L79" t="s">
+        <v>269</v>
+      </c>
+      <c r="M79" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" t="s">
+        <v>26</v>
+      </c>
+      <c r="O79" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" t="s">
+        <v>296</v>
+      </c>
+      <c r="B80" t="s">
+        <v>35</v>
+      </c>
+      <c r="C80" t="s">
+        <v>36</v>
+      </c>
+      <c r="D80" t="s">
+        <v>297</v>
+      </c>
+      <c r="E80" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" t="s">
+        <v>299</v>
+      </c>
+      <c r="G80" t="s">
+        <v>268</v>
+      </c>
+      <c r="H80" t="s">
+        <v>22</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>22</v>
+      </c>
+      <c r="K80" t="s">
+        <v>23</v>
+      </c>
+      <c r="L80" t="s">
+        <v>269</v>
+      </c>
+      <c r="M80" t="s">
+        <v>86</v>
+      </c>
+      <c r="N80" t="s"/>
+      <c r="O80" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" t="s">
+        <v>301</v>
+      </c>
+      <c r="B81" t="s">
+        <v>50</v>
+      </c>
+      <c r="C81" t="s">
+        <v>36</v>
+      </c>
+      <c r="D81" t="s">
+        <v>58</v>
+      </c>
+      <c r="E81" t="s">
+        <v>302</v>
+      </c>
+      <c r="F81" t="s">
+        <v>161</v>
+      </c>
+      <c r="G81" t="s">
+        <v>268</v>
+      </c>
+      <c r="H81" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>22</v>
+      </c>
+      <c r="K81" t="s">
+        <v>23</v>
+      </c>
+      <c r="L81" t="s">
+        <v>269</v>
+      </c>
+      <c r="M81" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" t="s">
+        <v>26</v>
+      </c>
+      <c r="O81" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" t="s">
+        <v>63</v>
+      </c>
+      <c r="E82" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82" t="s">
+        <v>65</v>
+      </c>
+      <c r="G82" t="s">
+        <v>268</v>
+      </c>
+      <c r="H82" t="s">
+        <v>22</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>22</v>
+      </c>
+      <c r="K82" t="s">
+        <v>23</v>
+      </c>
+      <c r="L82" t="s">
+        <v>269</v>
+      </c>
+      <c r="M82" t="s">
+        <v>25</v>
+      </c>
+      <c r="N82" t="s">
+        <v>26</v>
+      </c>
+      <c r="O82" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" t="s">
+        <v>306</v>
+      </c>
+      <c r="B83" t="s">
+        <v>89</v>
+      </c>
+      <c r="C83" t="s">
+        <v>36</v>
+      </c>
+      <c r="D83" t="s">
+        <v>90</v>
+      </c>
+      <c r="E83" t="s">
+        <v>91</v>
+      </c>
+      <c r="F83" t="s">
+        <v>92</v>
+      </c>
+      <c r="G83" t="s">
+        <v>268</v>
+      </c>
+      <c r="H83" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>22</v>
+      </c>
+      <c r="K83" t="s">
+        <v>23</v>
+      </c>
+      <c r="L83" t="s">
+        <v>269</v>
+      </c>
+      <c r="M83" t="s">
+        <v>25</v>
+      </c>
+      <c r="N83" t="s">
+        <v>26</v>
+      </c>
+      <c r="O83" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" t="s">
+        <v>308</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" t="s">
+        <v>309</v>
+      </c>
+      <c r="E84" t="s">
+        <v>309</v>
+      </c>
+      <c r="F84" t="s">
+        <v>310</v>
+      </c>
+      <c r="G84" t="s">
+        <v>268</v>
+      </c>
+      <c r="H84" t="s">
+        <v>22</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>22</v>
+      </c>
+      <c r="K84" t="s">
+        <v>23</v>
+      </c>
+      <c r="L84" t="s">
+        <v>269</v>
+      </c>
+      <c r="M84" t="s">
+        <v>25</v>
+      </c>
+      <c r="N84" t="s">
+        <v>26</v>
+      </c>
+      <c r="O84" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" t="s">
+        <v>257</v>
+      </c>
+      <c r="C85" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" t="s">
+        <v>309</v>
+      </c>
+      <c r="F85" t="s">
+        <v>310</v>
+      </c>
+      <c r="G85" t="s">
+        <v>268</v>
+      </c>
+      <c r="H85" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
+      </c>
+      <c r="K85" t="s">
+        <v>23</v>
+      </c>
+      <c r="L85" t="s">
+        <v>269</v>
+      </c>
+      <c r="M85" t="s">
+        <v>25</v>
+      </c>
+      <c r="N85" t="s">
+        <v>26</v>
+      </c>
+      <c r="O85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" t="s">
+        <v>95</v>
+      </c>
+      <c r="C86" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" t="s">
+        <v>315</v>
+      </c>
+      <c r="E86" t="s">
+        <v>316</v>
+      </c>
+      <c r="F86" t="s">
+        <v>317</v>
+      </c>
+      <c r="G86" t="s">
+        <v>268</v>
+      </c>
+      <c r="H86" t="s">
+        <v>22</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>22</v>
+      </c>
+      <c r="K86" t="s">
+        <v>23</v>
+      </c>
+      <c r="L86" t="s">
+        <v>269</v>
+      </c>
+      <c r="M86" t="s">
+        <v>25</v>
+      </c>
+      <c r="N86" t="s">
+        <v>26</v>
+      </c>
+      <c r="O86" t="s">
+        <v>318</v>
       </c>
     </row>
   </sheetData>

--- a/Security_Advisory_November_2017.xlsx
+++ b/Security_Advisory_November_2017.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="339">
   <si>
     <t>CVE ID Number</t>
   </si>
@@ -972,6 +972,66 @@
   </si>
   <si>
     <t xml:space="preserve">	ROOT version 6.9.03 and below is vulnerable to an authenticated shell metacharacter injection in the rootd daemon resulting in remote code execution	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0853</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>Partial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An information disclosure vulnerability in the Android media framework (n/a). Product: Android. Versions: 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-63121644.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-0854</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An information disclosure vulnerability in the Android media framework (n/a). Product: Android. Versions: 7.0, 7.1.1, 7.1.2, 8.0. Android ID: A-63873837.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2898</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	An exploitable vulnerability exists in the signature verification of the firmware update functionality of Circle with Disney. Specially crafted network packets can cause an unsigned firmware to be installed in the device resulting in arbitrary code execution. An attacker can send a series of packets to trigger this vulnerability.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2718</t>
+  </si>
+  <si>
+    <t>Fusionsphere Openstack</t>
+  </si>
+  <si>
+    <t>V100r006c10rc2</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	FusionSphere OpenStack with software V100R006C00 and V100R006C10RC2 has two command injection vulnerabilities due to the insufficient input validation on one port. An attacker can exploit the vulnerabilities to gain root privileges by sending some messages with malicious commands.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-2719</t>
+  </si>
+  <si>
+    <t>CVE-2017-8131</t>
+  </si>
+  <si>
+    <t>V100r006c10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	The FusionSphere OpenStack with software V100R006C00 and V100R006C10 has a command injection vulnerability due to the insufficient input validation on four TCP listening ports. An unauthenticated attacker can exploit the vulnerabilities to gain root privileges by sending some messages with malicious commands.	</t>
+  </si>
+  <si>
+    <t>CVE-2017-8132</t>
+  </si>
+  <si>
+    <t>CVE-2017-8134</t>
+  </si>
+  <si>
+    <t>CVE-2017-8135</t>
   </si>
 </sst>
 </file>
@@ -1320,7 +1380,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O86"/>
+  <dimension ref="A1:O95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5202,6 +5262,429 @@
         <v>318</v>
       </c>
     </row>
+    <row r="87" spans="1:15">
+      <c r="A87" t="s">
+        <v>319</v>
+      </c>
+      <c r="B87" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87" t="s">
+        <v>136</v>
+      </c>
+      <c r="E87" t="s">
+        <v>137</v>
+      </c>
+      <c r="F87" t="s">
+        <v>85</v>
+      </c>
+      <c r="G87" t="s">
+        <v>320</v>
+      </c>
+      <c r="H87" t="s">
+        <v>321</v>
+      </c>
+      <c r="I87" t="s">
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>22</v>
+      </c>
+      <c r="K87" t="s">
+        <v>23</v>
+      </c>
+      <c r="L87" t="s">
+        <v>24</v>
+      </c>
+      <c r="M87" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" t="s">
+        <v>270</v>
+      </c>
+      <c r="O87" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" t="s">
+        <v>323</v>
+      </c>
+      <c r="B88" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" t="s">
+        <v>36</v>
+      </c>
+      <c r="D88" t="s">
+        <v>136</v>
+      </c>
+      <c r="E88" t="s">
+        <v>137</v>
+      </c>
+      <c r="F88" t="s">
+        <v>85</v>
+      </c>
+      <c r="G88" t="s">
+        <v>320</v>
+      </c>
+      <c r="H88" t="s">
+        <v>321</v>
+      </c>
+      <c r="I88" t="s">
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>22</v>
+      </c>
+      <c r="K88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L88" t="s">
+        <v>24</v>
+      </c>
+      <c r="M88" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" t="s">
+        <v>270</v>
+      </c>
+      <c r="O88" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" t="s">
+        <v>325</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
+      </c>
+      <c r="D89" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" t="s">
+        <v>160</v>
+      </c>
+      <c r="F89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G89" t="s">
+        <v>320</v>
+      </c>
+      <c r="H89" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>22</v>
+      </c>
+      <c r="K89" t="s">
+        <v>133</v>
+      </c>
+      <c r="L89" t="s">
+        <v>269</v>
+      </c>
+      <c r="M89" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" t="s">
+        <v>26</v>
+      </c>
+      <c r="O89" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" t="s">
+        <v>327</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>36</v>
+      </c>
+      <c r="D90" t="s">
+        <v>292</v>
+      </c>
+      <c r="E90" t="s">
+        <v>328</v>
+      </c>
+      <c r="F90" t="s">
+        <v>329</v>
+      </c>
+      <c r="G90" t="s">
+        <v>330</v>
+      </c>
+      <c r="H90" t="s">
+        <v>22</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>22</v>
+      </c>
+      <c r="K90" t="s">
+        <v>23</v>
+      </c>
+      <c r="L90" t="s">
+        <v>24</v>
+      </c>
+      <c r="M90" t="s">
+        <v>25</v>
+      </c>
+      <c r="N90" t="s">
+        <v>102</v>
+      </c>
+      <c r="O90" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" t="s">
+        <v>332</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
+      </c>
+      <c r="D91" t="s">
+        <v>292</v>
+      </c>
+      <c r="E91" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" t="s">
+        <v>329</v>
+      </c>
+      <c r="G91" t="s">
+        <v>330</v>
+      </c>
+      <c r="H91" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>22</v>
+      </c>
+      <c r="K91" t="s">
+        <v>23</v>
+      </c>
+      <c r="L91" t="s">
+        <v>24</v>
+      </c>
+      <c r="M91" t="s">
+        <v>25</v>
+      </c>
+      <c r="N91" t="s">
+        <v>102</v>
+      </c>
+      <c r="O91" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" t="s">
+        <v>333</v>
+      </c>
+      <c r="B92" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
+      </c>
+      <c r="D92" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" t="s">
+        <v>328</v>
+      </c>
+      <c r="F92" t="s">
+        <v>334</v>
+      </c>
+      <c r="G92" t="s">
+        <v>330</v>
+      </c>
+      <c r="H92" t="s">
+        <v>22</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>22</v>
+      </c>
+      <c r="K92" t="s">
+        <v>23</v>
+      </c>
+      <c r="L92" t="s">
+        <v>24</v>
+      </c>
+      <c r="M92" t="s">
+        <v>25</v>
+      </c>
+      <c r="N92" t="s">
+        <v>102</v>
+      </c>
+      <c r="O92" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" t="s">
+        <v>336</v>
+      </c>
+      <c r="B93" t="s">
+        <v>154</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" t="s">
+        <v>328</v>
+      </c>
+      <c r="F93" t="s">
+        <v>334</v>
+      </c>
+      <c r="G93" t="s">
+        <v>330</v>
+      </c>
+      <c r="H93" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>22</v>
+      </c>
+      <c r="K93" t="s">
+        <v>23</v>
+      </c>
+      <c r="L93" t="s">
+        <v>24</v>
+      </c>
+      <c r="M93" t="s">
+        <v>25</v>
+      </c>
+      <c r="N93" t="s">
+        <v>102</v>
+      </c>
+      <c r="O93" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" t="s">
+        <v>337</v>
+      </c>
+      <c r="B94" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94" t="s">
+        <v>292</v>
+      </c>
+      <c r="E94" t="s">
+        <v>328</v>
+      </c>
+      <c r="F94" t="s">
+        <v>334</v>
+      </c>
+      <c r="G94" t="s">
+        <v>330</v>
+      </c>
+      <c r="H94" t="s">
+        <v>22</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s">
+        <v>22</v>
+      </c>
+      <c r="K94" t="s">
+        <v>23</v>
+      </c>
+      <c r="L94" t="s">
+        <v>24</v>
+      </c>
+      <c r="M94" t="s">
+        <v>25</v>
+      </c>
+      <c r="N94" t="s">
+        <v>102</v>
+      </c>
+      <c r="O94" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" t="s">
+        <v>338</v>
+      </c>
+      <c r="B95" t="s">
+        <v>154</v>
+      </c>
+      <c r="C95" t="s">
+        <v>36</v>
+      </c>
+      <c r="D95" t="s">
+        <v>292</v>
+      </c>
+      <c r="E95" t="s">
+        <v>328</v>
+      </c>
+      <c r="F95" t="s">
+        <v>334</v>
+      </c>
+      <c r="G95" t="s">
+        <v>330</v>
+      </c>
+      <c r="H95" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
+      </c>
+      <c r="K95" t="s">
+        <v>23</v>
+      </c>
+      <c r="L95" t="s">
+        <v>24</v>
+      </c>
+      <c r="M95" t="s">
+        <v>25</v>
+      </c>
+      <c r="N95" t="s">
+        <v>102</v>
+      </c>
+      <c r="O95" t="s">
+        <v>335</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
